--- a/Alex/Battery options/Battery spreadsheet.xlsx
+++ b/Alex/Battery options/Battery spreadsheet.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28324"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Documents\GitHub\CubeSat_project\Alex\Battery options\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E582301-5A4A-4D12-A65E-F5291A8415A4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F4C395E-71CC-476F-BA86-34DDD67675C4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{CD917341-31A3-4E73-A04E-2E21A192FF50}"/>
+    <workbookView xWindow="300" yWindow="1665" windowWidth="21600" windowHeight="12735" xr2:uid="{CD917341-31A3-4E73-A04E-2E21A192FF50}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -148,13 +148,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="11" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -497,17 +495,17 @@
   <dimension ref="A1:K5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K10" sqref="K10"/>
+      <selection activeCell="C4" sqref="A1:K5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="45.28515625" customWidth="1"/>
     <col min="2" max="2" width="17.85546875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="15.5703125" style="5" customWidth="1"/>
-    <col min="4" max="4" width="16.42578125" style="7" customWidth="1"/>
-    <col min="5" max="5" width="11.140625" style="7" customWidth="1"/>
-    <col min="6" max="6" width="12.7109375" style="7" customWidth="1"/>
+    <col min="3" max="3" width="15.5703125" customWidth="1"/>
+    <col min="4" max="4" width="16.42578125" style="5" customWidth="1"/>
+    <col min="5" max="5" width="11.140625" style="5" customWidth="1"/>
+    <col min="6" max="6" width="12.7109375" style="5" customWidth="1"/>
     <col min="7" max="8" width="19.140625" customWidth="1"/>
     <col min="9" max="9" width="31.140625" customWidth="1"/>
     <col min="10" max="10" width="29.85546875" customWidth="1"/>
@@ -522,16 +520,16 @@
       <c r="B1" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="6" t="s">
+      <c r="D1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="6" t="s">
+      <c r="E1" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="6" t="s">
+      <c r="F1" s="4" t="s">
         <v>4</v>
       </c>
       <c r="G1" s="3" t="s">
@@ -557,28 +555,28 @@
       <c r="B2" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="5">
+      <c r="C2">
         <v>268</v>
       </c>
-      <c r="D2" s="7">
+      <c r="D2" s="5">
         <v>95.89</v>
       </c>
-      <c r="E2" s="7">
+      <c r="E2" s="5">
         <v>90.17</v>
       </c>
-      <c r="F2" s="7">
+      <c r="F2" s="5">
         <v>21.55</v>
       </c>
-      <c r="G2" s="7">
+      <c r="G2" s="5">
         <v>8.26</v>
       </c>
-      <c r="H2" s="7">
+      <c r="H2" s="5">
         <v>6.2</v>
       </c>
-      <c r="I2" s="7">
+      <c r="I2" s="5">
         <v>30</v>
       </c>
-      <c r="J2" s="7">
+      <c r="J2" s="5">
         <v>1.95</v>
       </c>
       <c r="K2" t="s">
@@ -592,28 +590,28 @@
       <c r="B3" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="5">
+      <c r="C3">
         <v>335</v>
       </c>
-      <c r="D3" s="7">
+      <c r="D3" s="5">
         <v>95.89</v>
       </c>
-      <c r="E3" s="7">
+      <c r="E3" s="5">
         <v>90.17</v>
       </c>
-      <c r="F3" s="7">
+      <c r="F3" s="5">
         <v>27.35</v>
       </c>
-      <c r="G3" s="7">
+      <c r="G3" s="5">
         <v>8.26</v>
       </c>
-      <c r="H3" s="7">
+      <c r="H3" s="5">
         <v>6.2</v>
       </c>
-      <c r="I3" s="7">
+      <c r="I3" s="5">
         <v>40</v>
       </c>
-      <c r="J3" s="7">
+      <c r="J3" s="5">
         <v>2.6</v>
       </c>
       <c r="K3" t="s">
@@ -627,28 +625,28 @@
       <c r="B4" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="5">
+      <c r="C4">
         <v>670</v>
       </c>
-      <c r="D4" s="7">
+      <c r="D4" s="5">
         <v>95.89</v>
       </c>
-      <c r="E4" s="7">
+      <c r="E4" s="5">
         <v>90.17</v>
       </c>
-      <c r="F4" s="7">
+      <c r="F4" s="5">
         <v>56.94</v>
       </c>
-      <c r="G4" s="7">
+      <c r="G4" s="5">
         <v>8.26</v>
       </c>
-      <c r="H4" s="7">
+      <c r="H4" s="5">
         <v>6.2</v>
       </c>
-      <c r="I4" s="7">
+      <c r="I4" s="5">
         <v>80</v>
       </c>
-      <c r="J4" s="7">
+      <c r="J4" s="5">
         <v>5.2</v>
       </c>
       <c r="K4" t="s">
@@ -656,34 +654,34 @@
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A5" s="8" t="s">
+      <c r="A5" s="6" t="s">
         <v>13</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C5" s="5" t="s">
+      <c r="C5" t="s">
         <v>15</v>
       </c>
-      <c r="D5" s="7">
+      <c r="D5" s="5">
         <v>94.5</v>
       </c>
-      <c r="E5" s="7">
+      <c r="E5" s="5">
         <v>84.1</v>
       </c>
-      <c r="F5" s="7">
+      <c r="F5" s="5">
         <v>23.1</v>
       </c>
-      <c r="G5" s="7">
+      <c r="G5" s="5">
         <v>16.8</v>
       </c>
-      <c r="H5" s="7">
+      <c r="H5" s="5">
         <v>13.2</v>
       </c>
-      <c r="I5" s="7" t="s">
+      <c r="I5" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="J5" s="7">
+      <c r="J5" s="5">
         <v>6.5</v>
       </c>
       <c r="K5" t="s">
